--- a/Shiny/Dati/HPLC_2^2+2.xlsx
+++ b/Shiny/Dati/HPLC_2^2+2.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camillo\GitHub\DoE_en\Shiny\Dati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DoE\Shiny\Dati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C88A786-BC1F-4C3B-8AD7-BADD1D3CB85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3791D850-F787-42AF-A6E2-E35831ED5566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{46A8090B-5E0D-471A-9BE4-523730CCD23D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{46A8090B-5E0D-471A-9BE4-523730CCD23D}"/>
   </bookViews>
   <sheets>
     <sheet name="HPLC 2^2" sheetId="1" r:id="rId1"/>
+    <sheet name="Costruzione" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>x1</t>
   </si>
@@ -46,10 +47,16 @@
     <t>y</t>
   </si>
   <si>
-    <t>temp (°C)</t>
+    <t xml:space="preserve"> f.m. A (%)</t>
   </si>
   <si>
-    <t xml:space="preserve"> f.m. A (%)</t>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Temp (°C)</t>
   </si>
 </sst>
 </file>
@@ -218,12 +225,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -241,16 +248,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -265,19 +266,13 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -288,7 +283,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -320,10 +315,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 1">
+        <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52761DC4-C7D6-4946-A502-1CDC3E68421C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BAC1DA-AE07-48DA-91BF-FCC8D9273648}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -332,7 +327,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3672840" y="0"/>
-          <a:ext cx="10315575" cy="2430780"/>
+          <a:ext cx="10315575" cy="2506980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -527,7 +522,55 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>X1: temperatura, </a:t>
+            <a:t>X1: Temp,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>temperatura della</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> colonna</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>, </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="it-IT" sz="1100"/>
@@ -537,7 +580,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>X2: % di f.m. A, 10, 20, 30%</a:t>
+            <a:t>X2: A, % di f.m. A, 10, 20, 30%</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -557,7 +600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -856,29 +899,29 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>-1</v>
       </c>
@@ -888,14 +931,14 @@
       <c r="C2" s="3">
         <v>20</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="11">
         <v>10</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="11">
         <v>0.82099999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -905,14 +948,14 @@
       <c r="C3" s="3">
         <v>60</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <v>10</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="12">
         <v>1.056</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>-1</v>
       </c>
@@ -922,14 +965,14 @@
       <c r="C4" s="3">
         <v>20</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>30</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="12">
         <v>1.996</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -939,21 +982,21 @@
       <c r="C5" s="4">
         <v>60</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <v>30</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <v>2.2309999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>0</v>
       </c>
@@ -963,27 +1006,169 @@
       <c r="C7" s="8">
         <v>40</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="16">
         <v>20</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>1.22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>0</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="5">
         <v>0</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="4">
         <v>40</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="15">
         <v>20</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
+        <v>1.165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8CC1D2-6A1A-4B1E-9F58-B22D3392FCF5}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>20</v>
+      </c>
+      <c r="D2" s="11">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>60</v>
+      </c>
+      <c r="D3" s="11">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>20</v>
+      </c>
+      <c r="D4" s="11">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1.996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>60</v>
+      </c>
+      <c r="D5" s="15">
+        <v>30</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2.2309999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>40</v>
+      </c>
+      <c r="D7" s="16">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>40</v>
+      </c>
+      <c r="D8" s="15">
+        <v>20</v>
+      </c>
+      <c r="E8" s="13">
         <v>1.165</v>
       </c>
     </row>
